--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Nrg4-Erbb4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Nrg4-Erbb4.xlsx
@@ -537,34 +537,34 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.681289</v>
+        <v>1.352346</v>
       </c>
       <c r="H2">
-        <v>1.362578</v>
+        <v>2.704692</v>
       </c>
       <c r="I2">
-        <v>0.09243418983283476</v>
+        <v>0.1602206213737441</v>
       </c>
       <c r="J2">
-        <v>0.06632106729093001</v>
+        <v>0.1162353457488538</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.005425999999999999</v>
+        <v>0.0108025</v>
       </c>
       <c r="N2">
-        <v>0.010852</v>
+        <v>0.021605</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -573,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.003696674114</v>
+        <v>0.014608717665</v>
       </c>
       <c r="R2">
-        <v>0.014786696456</v>
+        <v>0.05843487066</v>
       </c>
       <c r="S2">
-        <v>0.09243418983283476</v>
+        <v>0.1602206213737441</v>
       </c>
       <c r="T2">
-        <v>0.06632106729093001</v>
+        <v>0.1162353457488538</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,22 +611,22 @@
         <v>0.310964</v>
       </c>
       <c r="I3">
-        <v>0.01406339326735919</v>
+        <v>0.01228059616519859</v>
       </c>
       <c r="J3">
-        <v>0.01513562113072188</v>
+        <v>0.01336381667688838</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.005425999999999999</v>
+        <v>0.0108025</v>
       </c>
       <c r="N3">
-        <v>0.010852</v>
+        <v>0.021605</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -635,16 +635,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.0005624302213333332</v>
+        <v>0.001119729536666667</v>
       </c>
       <c r="R3">
-        <v>0.003374581327999999</v>
+        <v>0.00671837722</v>
       </c>
       <c r="S3">
-        <v>0.01406339326735919</v>
+        <v>0.01228059616519859</v>
       </c>
       <c r="T3">
-        <v>0.01513562113072188</v>
+        <v>0.01336381667688838</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,28 +667,28 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.546563666666666</v>
+        <v>1.818045333333333</v>
       </c>
       <c r="H4">
-        <v>10.639691</v>
+        <v>5.454136</v>
       </c>
       <c r="I4">
-        <v>0.4811816119428041</v>
+        <v>0.2153948419948019</v>
       </c>
       <c r="J4">
-        <v>0.5178680873797333</v>
+        <v>0.2343939286696121</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.005425999999999999</v>
+        <v>0.0108025</v>
       </c>
       <c r="N4">
-        <v>0.010852</v>
+        <v>0.021605</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -697,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.01924365445533333</v>
+        <v>0.01963943471333333</v>
       </c>
       <c r="R4">
-        <v>0.115461926732</v>
+        <v>0.11783660828</v>
       </c>
       <c r="S4">
-        <v>0.4811816119428041</v>
+        <v>0.2153948419948019</v>
       </c>
       <c r="T4">
-        <v>0.5178680873797333</v>
+        <v>0.2343939286696121</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,28 +729,28 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8851260000000001</v>
+        <v>0.7001250000000001</v>
       </c>
       <c r="H5">
-        <v>1.770252</v>
+        <v>1.40025</v>
       </c>
       <c r="I5">
-        <v>0.1200898659892904</v>
+        <v>0.08294804919694561</v>
       </c>
       <c r="J5">
-        <v>0.08616387613325874</v>
+        <v>0.0601763686530047</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.005425999999999999</v>
+        <v>0.0108025</v>
       </c>
       <c r="N5">
-        <v>0.010852</v>
+        <v>0.021605</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -759,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.004802693676</v>
+        <v>0.007563100312500001</v>
       </c>
       <c r="R5">
-        <v>0.019210774704</v>
+        <v>0.03025240125000001</v>
       </c>
       <c r="S5">
-        <v>0.1200898659892904</v>
+        <v>0.08294804919694561</v>
       </c>
       <c r="T5">
-        <v>0.08616387613325874</v>
+        <v>0.0601763686530047</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,28 +791,28 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6842566666666666</v>
+        <v>1.432006666666667</v>
       </c>
       <c r="H6">
-        <v>2.05277</v>
+        <v>4.29602</v>
       </c>
       <c r="I6">
-        <v>0.09283682933534725</v>
+        <v>0.1696585030344878</v>
       </c>
       <c r="J6">
-        <v>0.09991493866978798</v>
+        <v>0.1846233767260712</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.005425999999999999</v>
+        <v>0.0108025</v>
       </c>
       <c r="N6">
-        <v>0.010852</v>
+        <v>0.021605</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -821,16 +821,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.003712776673333333</v>
+        <v>0.01546925201666667</v>
       </c>
       <c r="R6">
-        <v>0.02227666004</v>
+        <v>0.09281551210000001</v>
       </c>
       <c r="S6">
-        <v>0.09283682933534725</v>
+        <v>0.1696585030344878</v>
       </c>
       <c r="T6">
-        <v>0.09991493866978798</v>
+        <v>0.1846233767260712</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,28 +853,28 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.469640333333333</v>
+        <v>3.034346333333334</v>
       </c>
       <c r="H7">
-        <v>4.408921</v>
+        <v>9.103039000000001</v>
       </c>
       <c r="I7">
-        <v>0.1993941096323644</v>
+        <v>0.3594973882348221</v>
       </c>
       <c r="J7">
-        <v>0.2145964093955681</v>
+        <v>0.3912071635255698</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.005425999999999999</v>
+        <v>0.0108025</v>
       </c>
       <c r="N7">
-        <v>0.010852</v>
+        <v>0.021605</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -883,16 +883,16 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>0.007974268448666666</v>
+        <v>0.03277852626583334</v>
       </c>
       <c r="R7">
-        <v>0.047845610692</v>
+        <v>0.196671157595</v>
       </c>
       <c r="S7">
-        <v>0.1993941096323644</v>
+        <v>0.3594973882348221</v>
       </c>
       <c r="T7">
-        <v>0.2145964093955681</v>
+        <v>0.3912071635255698</v>
       </c>
     </row>
   </sheetData>
